--- a/CRIM 545/crim 545 project five 2024 03 25.xlsx
+++ b/CRIM 545/crim 545 project five 2024 03 25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdanna2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewdanna/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAD9920-0C03-4548-8F70-917AD428B294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066D4748-5006-F849-9A49-4984371C55D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23320" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all the datas" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -341,6 +341,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,10 +467,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -514,6 +514,17 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1867,7 +1878,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D61BAC92-D15F-415B-88B2-4B97BE5FA902}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D61BAC92-D15F-415B-88B2-4B97BE5FA902}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -2153,501 +2164,502 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AC8AC1-8BFE-4807-ACD1-0983608D67D8}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="23">
         <v>43091</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="23">
         <v>43111</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="23">
         <v>43144</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="23">
         <v>43160</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="23">
         <v>43167</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="23">
         <v>43234</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="23">
         <v>43280</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="23">
         <v>43293</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="23">
         <v>43329</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="23">
         <v>43357</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="23">
         <v>43382</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="23">
         <v>43385</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="23">
         <v>43385</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="23">
         <v>43400</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="23">
         <v>43402</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="23">
         <v>43417</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="23">
         <v>43444</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="23">
         <v>43454</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="23">
         <v>43467</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="23">
         <v>43507</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2664,55 +2676,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C1B7FC-97E1-4B57-8EA4-517D341A0837}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J1" t="s">
@@ -2734,17 +2746,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>15</v>
       </c>
       <c r="E2">
@@ -2758,975 +2770,975 @@
         <f>TEXT(J2,"dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>43091</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <f>J3-$J$2</f>
+        <f t="shared" ref="E3:E20" si="0">J3-$J$2</f>
         <v>20</v>
       </c>
       <c r="F3">
-        <f>J3-J2</f>
+        <f t="shared" ref="F3:F20" si="1">J3-J2</f>
         <v>20</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H20" si="0">TEXT(J3,"mmmm")</f>
+        <f t="shared" ref="H3:H20" si="2">TEXT(J3,"mmmm")</f>
         <v>January</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I20" si="1">TEXT(J3,"dddd")</f>
+        <f t="shared" ref="I3:I20" si="3">TEXT(J3,"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>43111</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <f>J4-$J$2</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="F4">
-        <f>J4-J3</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f>(F4-F3)/F3</f>
         <v>0.65</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>February</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>43144</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>13</v>
       </c>
       <c r="E5">
-        <f>J5-$J$2</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="F5">
-        <f>J5-J4</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G5" s="17">
-        <f t="shared" ref="G5:G20" si="2">(F5-F4)/F4</f>
+      <c r="G5" s="16">
+        <f t="shared" ref="G5:G20" si="4">(F5-F4)/F4</f>
         <v>-0.51515151515151514</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>March</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>43160</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>12</v>
       </c>
       <c r="E6">
-        <f>J6-$J$2</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="F6">
-        <f>J6-J5</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.5625</v>
+      </c>
+      <c r="H6" t="str">
         <f t="shared" si="2"/>
-        <v>-0.5625</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
         <v>March</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>43167</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>21</v>
       </c>
       <c r="E7">
-        <f>J7-$J$2</f>
+        <f t="shared" si="0"/>
         <v>143</v>
       </c>
       <c r="F7">
-        <f>J7-J6</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
+        <f t="shared" si="4"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="H7" t="str">
         <f t="shared" si="2"/>
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
         <v>May</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>43234</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>14</v>
       </c>
       <c r="E8">
-        <f>J8-$J$2</f>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
       <c r="F8">
-        <f>J8-J7</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.31343283582089554</v>
+      </c>
+      <c r="H8" t="str">
         <f t="shared" si="2"/>
-        <v>-0.31343283582089554</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
         <v>June</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>43280</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>10</v>
       </c>
       <c r="E9">
-        <f>J9-$J$2</f>
+        <f t="shared" si="0"/>
         <v>202</v>
       </c>
       <c r="F9">
-        <f>J9-J8</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.71739130434782605</v>
+      </c>
+      <c r="H9" t="str">
         <f t="shared" si="2"/>
-        <v>-0.71739130434782605</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
         <v>July</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>43293</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10">
-        <f>J10-$J$2</f>
+        <f t="shared" si="0"/>
         <v>238</v>
       </c>
       <c r="F10">
-        <f>J10-J9</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
+        <f t="shared" si="4"/>
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="H10" t="str">
         <f t="shared" si="2"/>
-        <v>1.7692307692307692</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
         <v>August</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>43329</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
       <c r="E11">
-        <f>J11-$J$2</f>
+        <f t="shared" si="0"/>
         <v>266</v>
       </c>
       <c r="F11">
-        <f>J11-J10</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.22222222222222221</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="2"/>
-        <v>-0.22222222222222221</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
         <v>September</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>43357</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12">
-        <f>J12-$J$2</f>
+        <f t="shared" si="0"/>
         <v>291</v>
       </c>
       <c r="F12">
-        <f>J12-J11</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.10714285714285714</v>
+      </c>
+      <c r="H12" t="str">
         <f t="shared" si="2"/>
-        <v>-0.10714285714285714</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
         <v>October</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>43382</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>16</v>
       </c>
       <c r="E13">
-        <f>J13-$J$2</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="F13">
-        <f>J13-J12</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.88</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="2"/>
-        <v>-0.88</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
         <v>October</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>43385</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14">
-        <f>J14-$J$2</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="F14">
-        <f>J14-J13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
         <v>October</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>43385</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>11</v>
       </c>
       <c r="E15">
-        <f>J15-$J$2</f>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="F15">
-        <f>J15-J14</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>10</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>October</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Saturday</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>43400</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>13</v>
       </c>
       <c r="E16">
-        <f>J16-$J$2</f>
+        <f t="shared" si="0"/>
         <v>311</v>
       </c>
       <c r="F16">
-        <f>J16-J15</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.8666666666666667</v>
+      </c>
+      <c r="H16" t="str">
         <f t="shared" si="2"/>
-        <v>-0.8666666666666667</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
         <v>October</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>43402</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>13</v>
       </c>
       <c r="E17">
-        <f>J17-$J$2</f>
+        <f t="shared" si="0"/>
         <v>326</v>
       </c>
       <c r="F17">
-        <f>J17-J16</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="H17" t="str">
         <f t="shared" si="2"/>
-        <v>6.5</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
         <v>November</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>43417</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>9</v>
       </c>
       <c r="E18">
-        <f>J18-$J$2</f>
+        <f t="shared" si="0"/>
         <v>353</v>
       </c>
       <c r="F18">
-        <f>J18-J17</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H18" t="str">
         <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
         <v>December</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>43444</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>9</v>
       </c>
       <c r="E19">
-        <f>J19-$J$2</f>
+        <f t="shared" si="0"/>
         <v>363</v>
       </c>
       <c r="F19">
-        <f>J19-J18</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.62962962962962965</v>
+      </c>
+      <c r="H19" t="str">
         <f t="shared" si="2"/>
-        <v>-0.62962962962962965</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
         <v>December</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>43454</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
       <c r="E20">
-        <f>J20-$J$2</f>
+        <f t="shared" si="0"/>
         <v>376</v>
       </c>
       <c r="F20">
-        <f>J20-J19</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="H20" t="str">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
         <v>January</v>
       </c>
-      <c r="I20" s="15" t="str">
-        <f t="shared" si="1"/>
+      <c r="I20" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>Wednesday</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>43467</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O20" s="21" t="s">
+      <c r="O20" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
+    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>40</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="18">
         <f>J20+F21</f>
         <v>43507</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D22" s="14" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D22" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E24" s="14" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E24" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F24">
         <f>AVERAGE(F3:F21)</f>
         <v>21.894736842105264</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="17">
         <f>AVERAGE(G17,G10,G7)</f>
         <v>5.613553113553114</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E25" s="14" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E25" s="13" t="s">
         <v>89</v>
       </c>
       <c r="F25">
@@ -3734,8 +3746,8 @@
         <v>16.465077146254092</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E26" s="14" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E26" s="13" t="s">
         <v>90</v>
       </c>
       <c r="F26">
@@ -3743,8 +3755,8 @@
         <v>1.26147393399928</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E27" s="14" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E27" s="13" t="s">
         <v>91</v>
       </c>
       <c r="F27">
@@ -3752,8 +3764,8 @@
         <v>38.359813988359356</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E28" s="14" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E28" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F28">
@@ -3800,13 +3812,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -3814,59 +3826,59 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>19</v>
       </c>
     </row>
